--- a/hospitalList.xlsx
+++ b/hospitalList.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,14 +1157,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CLOSED</t>
+          <t>OPEN</t>
         </is>
       </c>
       <c r="H27" s="1" t="n">
         <v>44083.1129050926</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>44084.0893287037</v>
+        <v>44085.38155092593</v>
       </c>
     </row>
     <row r="28">
@@ -1344,6 +1344,339 @@
       </c>
       <c r="I32" s="1" t="n">
         <v>44084.48502314815</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>순풍산부인과2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0312048888</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>서울시 용산구 청파로 47나길</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>126.968</v>
+      </c>
+      <c r="F33" t="n">
+        <v>37.5472</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>44085.22550925926</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>44085.22550925926</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>순풍산부인과3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0312048888</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>서울시 용산구 청파동</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>126.97</v>
+      </c>
+      <c r="F34" t="n">
+        <v>37.5454</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>44085.22586805555</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>44085.22586805555</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>순풍산부인과3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0312048888</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>서울시 용산구 청파동 3가</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>126.967</v>
+      </c>
+      <c r="F35" t="n">
+        <v>37.5432</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>44085.2259837963</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>44085.2259837963</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>61</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>순풍산부인과22</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0312048888</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>서울시 용산구 청파로 45길</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>126.969</v>
+      </c>
+      <c r="F36" t="n">
+        <v>37.5444</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>44085.22638888889</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>44085.22638888889</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>순풍산부인과22</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0312048888</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>서울시 용산구 청파로</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>126.971</v>
+      </c>
+      <c r="F37" t="n">
+        <v>37.5378</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>44085.22653935185</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>44085.22653935185</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>phillipshospital</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>023339999</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>서울시 용산구 청파동</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>126.97</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37.5454</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CLOSED</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>44085.36050925926</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>44085.36050925926</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>순풍병원</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0312048888</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>서울시 용산구 청파로</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>126.971</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37.5378</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>44085.36111111111</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>44085.36111111111</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>phillipshospital</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>023339999</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>서울시 용산구 청파동</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>126.97</v>
+      </c>
+      <c r="F40" t="n">
+        <v>37.5454</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CLOSED</t>
+        </is>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>44085.36392361111</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>44085.36392361111</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>순풍병원1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0312048888</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>서울시 용산구 청파로</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>126.971</v>
+      </c>
+      <c r="F41" t="n">
+        <v>37.5378</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>44085.38142361111</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>44085.38142361111</v>
       </c>
     </row>
   </sheetData>
